--- a/上周总结&本周计划表-赵昌.xlsx
+++ b/上周总结&本周计划表-赵昌.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,52 +177,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户进度管控系统-权限管理系统开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金吉列社区个人风采页套模板</t>
-  </si>
-  <si>
-    <t>工作总结（1月4日-1月8日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作计划（1月10日-1月14日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建金吉列社区svn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金吉列社区个人风采页套模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复 申请截止日期的区间查询功能
-暂时取消非合同创建人所在部门添加记录的验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">修复经理不能选择文案问题
-调度中心人员 无差别(可以看到所有部门)
-网申中心和翻译部使用同一合同号时 不使用创建人部门进行判断
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金吉列社区个人风采页 高度
-1.开通澳新院校申请部经理，英亚院校申请二部经理杨玉婷，美加文书一部到五部经理分配文书的权限
-2.隐藏高级查询中的 截止日期字段</t>
+    <t>工作总结（1月18日-1月22日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划（2月1日-1月5日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+客户管控系统-修复英国外联 列表页 人员显示错位问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管控系统-开放app_send_date(申请转外联日期)字段限时修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金吉列社区-顾问风采插件-
+1.顾问风采首页=取消非登录状态下的所有提醒
+2.顾问风采首页 添加非登录状态的  登录和注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户进度管控系统 -权限系统重新启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管控系统-清空英国外联数据及网申相关字段重置为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为相关人员搭建金吉列社区苹果系统本地环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1031,7 +1021,7 @@
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1060,16 +1050,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="10">
-        <v>42373</v>
+        <v>42394</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="69" customHeight="1">
@@ -1083,10 +1071,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="10">
-        <v>42374</v>
+        <v>42395</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="69" customHeight="1">
@@ -1094,16 +1082,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="10">
-        <v>42375</v>
+        <v>42396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="69" customHeight="1">
@@ -1111,13 +1099,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="10">
-        <v>42376</v>
+        <v>42397</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
@@ -1128,13 +1116,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10">
-        <v>42377</v>
+        <v>42398</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1160,7 +1148,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1201,12 +1189,8 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
@@ -1215,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>33</v>

--- a/上周总结&本周计划表-赵昌.xlsx
+++ b/上周总结&本周计划表-赵昌.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,38 +181,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作总结（1月18日-1月22日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作计划（2月1日-1月5日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-客户管控系统-修复英国外联 列表页 人员显示错位问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管控系统-开放app_send_date(申请转外联日期)字段限时修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金吉列社区-顾问风采插件-
-1.顾问风采首页=取消非登录状态下的所有提醒
-2.顾问风采首页 添加非登录状态的  登录和注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户进度管控系统 -权限系统重新启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管控系统-清空英国外联数据及网申相关字段重置为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为相关人员搭建金吉列社区苹果系统本地环境</t>
+    <t>工作总结（2月22日-2月26日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年假时间...</t>
+  </si>
+  <si>
+    <t>年假时间...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划（2月29日-3月4日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修复自动填充合同信息问题 网申特殊状态项提升为全局变量
+优化自动识别国家函数
+修复因优化导出产生的不能解析问题 先具体 再通用
+1. 签证中心 取消 高级签证顾问字段的岗位判断
+2. 外联中心 添加 预录取 状态
+3. 优化 国家标签 的取状态函数
+4. 修复 英国 加拿大 香港 列表页状态ID值不正确问题
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求类：
+3、 新马，日本，韩国的字段中，1. 英亚院校申请二部经理  杨玉婷  反馈， 在录合同类型为全程时，需要录入  “签证转案日期”，全程合同不应该显示“签证转案日期”这个字段的。日本和韩国是同样的情况，也需要调整。(已经调整)
+4、 外联中心字段中的“外联跟催记录”修改为“外联跟催记录1“，并且增加4个此字段，都是最大字符权限。“外联跟催纪录2” “外联跟催纪录3” “外联跟催纪录4” “外联跟催纪录5”。
+5、 外联中心字段中的“后期跟催记录” 修改为“后期跟催记录1“，并且增加3个此字段，都是最大字符权限。“后期跟催纪录2” “外联跟催纪录3” “外联跟催纪录4“。
+6、 外联中心模块，加拿大。”电子版通知书到“改为”正课电子版通知书到“；”通知书原件到“改为”正课通知书原件到“；
+在”正课通知书原件到“后面增加“语言通知书到“，为日期年月日格式。
+7、 外联中心模块，加拿大。”开学日期“改为”正课开学日期“；在”正课开学日期“后面增加“语言开学日期“，为日期年月日格式。
+8、 外联中心模块，加拿大。在“接受offer截止日期”字段后面增加一个字段“接受offer日期”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增字段配置导出列表
+2.新增字段配置查询条件
+3.新增字段配置语言包
+4.之前调整过英国的四个字段给网申编辑，其他国家一起做了调整权限。目前加拿大网申下面没有这四个字段，需要单独加上
+5.开放列表页字段即时修改功能(动态字段除外)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +998,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1050,11 +1060,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="10">
-        <v>42394</v>
+        <v>42422</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
@@ -1065,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="10">
-        <v>42395</v>
+        <v>42423</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>34</v>
@@ -1082,13 +1094,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="10">
-        <v>42396</v>
+        <v>42424</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -1099,13 +1111,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="10">
-        <v>42397</v>
+        <v>42425</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
@@ -1116,13 +1128,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10">
-        <v>42398</v>
+        <v>42426</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1148,7 +1160,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1198,12 +1210,8 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
     </row>
